--- a/published-data/fonds-solidarite/fds-2022-06-23/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-23/fonds-solidarite-volet-1-regional-classe-effectif-latest.xlsx
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="D8" t="n">
         <v>194</v>
       </c>
       <c r="E8" t="n">
-        <v>91299368</v>
+        <v>91353904</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -2993,13 +2993,13 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>14362</v>
+        <v>14364</v>
       </c>
       <c r="D63" t="n">
         <v>2812</v>
       </c>
       <c r="E63" t="n">
-        <v>36193311</v>
+        <v>36198911</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5213</v>
+        <v>5218</v>
       </c>
       <c r="D64" t="n">
         <v>1053</v>
       </c>
       <c r="E64" t="n">
-        <v>20442161</v>
+        <v>20473121</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
@@ -3075,13 +3075,13 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D65" t="n">
         <v>408</v>
       </c>
       <c r="E65" t="n">
-        <v>13657300</v>
+        <v>13672438</v>
       </c>
       <c r="F65" t="inlineStr">
         <is>
@@ -3321,13 +3321,13 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="D71" t="n">
         <v>377</v>
       </c>
       <c r="E71" t="n">
-        <v>5953050</v>
+        <v>5956007</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
@@ -3362,13 +3362,13 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6277</v>
+        <v>6279</v>
       </c>
       <c r="D72" t="n">
         <v>957</v>
       </c>
       <c r="E72" t="n">
-        <v>15147825</v>
+        <v>15206435</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>151170</v>
+        <v>151171</v>
       </c>
       <c r="D91" t="n">
         <v>24844</v>
       </c>
       <c r="E91" t="n">
-        <v>482658714</v>
+        <v>482664512</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4182,13 +4182,13 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>409243</v>
+        <v>409248</v>
       </c>
       <c r="D92" t="n">
         <v>70908</v>
       </c>
       <c r="E92" t="n">
-        <v>1596836222</v>
+        <v>1596880544</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>209640</v>
+        <v>209643</v>
       </c>
       <c r="D93" t="n">
         <v>34262</v>
       </c>
       <c r="E93" t="n">
-        <v>1309790354</v>
+        <v>1309884004</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4346,13 +4346,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>17311</v>
+        <v>17315</v>
       </c>
       <c r="D96" t="n">
         <v>2565</v>
       </c>
       <c r="E96" t="n">
-        <v>795927152</v>
+        <v>796624296</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
